--- a/vcc/任务梳理.xlsx
+++ b/vcc/任务梳理.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="模块功能整理" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,54 @@
   </si>
   <si>
     <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存模块所需功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数，最多2个，数量显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击modal修改疫苗数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改、添加、删除抽屉中的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击直接选中该抽屉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转疫苗详情页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,10 +226,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -199,6 +247,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>398719</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19926300" y="47625"/>
+          <a:ext cx="10647619" cy="6657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8190</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="7058025"/>
+          <a:ext cx="10676190" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>589220</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="66675"/>
+          <a:ext cx="10638095" cy="6638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,7 +678,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -522,29 +689,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -555,30 +724,32 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -591,7 +762,9 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -600,7 +773,9 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -609,58 +784,66 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -669,7 +852,7 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
@@ -682,7 +865,9 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -711,14 +896,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD59" sqref="AD59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/vcc/任务梳理.xlsx
+++ b/vcc/任务梳理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDF676-B100-497E-A10D-8561021FB867}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,13 +176,53 @@
   </si>
   <si>
     <t>跳转疫苗详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击modal录入窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑（添加，删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加(select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除(按钮)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,8 +277,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4ECA9433-5B75-4158-AF84-B7C107A14450}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -266,7 +335,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -304,7 +379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -342,7 +423,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -357,6 +444,50 @@
         <a:xfrm>
           <a:off x="9153525" y="66675"/>
           <a:ext cx="10638095" cy="6638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>313000</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>103948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654DA530-CAEC-4307-B09F-2768EC3C24FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="14230350"/>
+          <a:ext cx="10600000" cy="6619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,6 +575,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +627,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -895,11 +1060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView tabSelected="1" topLeftCell="O37" workbookViewId="0">
+      <selection activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,44 +1079,110 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AE44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="AF45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AE47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AF48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="31:34" x14ac:dyDescent="0.15">
+      <c r="AE50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="31:34" x14ac:dyDescent="0.15">
+      <c r="AF51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="31:34" x14ac:dyDescent="0.15">
+      <c r="AE53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="31:34" x14ac:dyDescent="0.15">
+      <c r="AF54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="31:34" x14ac:dyDescent="0.15">
+      <c r="AH55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="31:34" x14ac:dyDescent="0.15">
+      <c r="AH56" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
